--- a/ex_turn_less_fit.xlsx
+++ b/ex_turn_less_fit.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xqhu/bill_rate_prediction/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67544A3-0D00-014A-8CD0-D2947C02CD67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,11 +37,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,14 +436,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,7 +476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -435,7 +490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -449,7 +504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -463,7 +518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -477,7 +532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -491,7 +546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -505,7 +560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -519,7 +574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -533,7 +588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -547,7 +602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -561,7 +616,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -575,7 +630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -589,7 +644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -603,7 +658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -617,7 +672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -631,7 +686,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -645,7 +700,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -662,7 +717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -676,7 +731,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -690,7 +745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -704,7 +759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -718,7 +773,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -732,7 +787,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -746,7 +801,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -760,7 +815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -774,7 +829,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -788,7 +843,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -802,7 +857,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -816,7 +871,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -830,7 +885,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -844,7 +899,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -858,7 +913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -872,7 +927,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -886,7 +941,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -900,7 +955,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -914,7 +969,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -928,7 +983,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -942,7 +997,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -956,7 +1011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -970,7 +1025,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -984,7 +1039,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -998,7 +1053,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1012,7 +1067,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1026,7 +1081,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1040,7 +1095,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1054,7 +1109,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1068,7 +1123,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1082,7 +1137,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1096,7 +1151,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1110,7 +1165,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1124,7 +1179,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1138,7 +1193,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1152,7 +1207,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1166,7 +1221,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1180,7 +1235,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1194,7 +1249,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1208,7 +1263,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1222,7 +1277,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1236,7 +1291,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1250,7 +1305,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1264,7 +1319,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1278,7 +1333,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1292,7 +1347,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1306,7 +1361,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1320,7 +1375,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1334,7 +1389,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1348,7 +1403,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1362,7 +1417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1376,7 +1431,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1390,7 +1445,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1404,7 +1459,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1418,7 +1473,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1432,7 +1487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1446,7 +1501,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1460,7 +1515,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1474,7 +1529,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1488,7 +1543,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1502,7 +1557,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1516,7 +1571,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1530,7 +1585,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1544,7 +1599,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1558,7 +1613,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1572,7 +1627,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1586,7 +1641,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1600,7 +1655,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1614,7 +1669,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1628,7 +1683,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1642,7 +1697,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
